--- a/src/test/resources/run/run.xlsx
+++ b/src/test/resources/run/run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9896A-BF76-409C-B765-8A1E841B2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3BFEFE-F888-4221-9036-327900DB07BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>run</t>
     <phoneticPr fontId="1"/>
@@ -56,8 +56,16 @@
   <si>
     <t>{
     "value":"echo ${name}_${caseId}",
-    "type":"cmd"
+    "target":"cmd"
 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo ${name}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -133,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +156,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -474,11 +485,11 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.375" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,11 +502,14 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -503,11 +517,14 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -515,8 +532,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/resources/run/run.xlsx
+++ b/src/test/resources/run/run.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3BFEFE-F888-4221-9036-327900DB07BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444601AD-703E-480F-BC1D-333E7A67BA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -88,16 +88,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -107,31 +120,136 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -141,24 +259,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,67 +612,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="35.375" customWidth="1"/>
     <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
